--- a/Основы Машинного обучения/Лаб2/Data.xlsx
+++ b/Основы Машинного обучения/Лаб2/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Учёба\4 курс\LabsAntonAndrew\Основы Машинного обучения\Лаб2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23AFF65-F641-4EEB-BB7E-C1CA93CEC6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8661DF-7DE1-4C57-AA98-B66834180C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="11">
   <si>
     <t>uzel</t>
   </si>
@@ -167,15 +167,12 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>5.6157350274997332E-2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FE52-4B19-AC54-982B2609A45D}"/>
+              <c16:uniqueId val="{00000000-8A67-4909-808C-CAA9F1C74B37}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -192,15 +189,12 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1.8650075414781291E-2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FE52-4B19-AC54-982B2609A45D}"/>
+              <c16:uniqueId val="{00000001-8A67-4909-808C-CAA9F1C74B37}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -217,15 +211,12 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>8.6038961038961026E-2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-FE52-4B19-AC54-982B2609A45D}"/>
+              <c16:uniqueId val="{00000002-8A67-4909-808C-CAA9F1C74B37}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -653,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -703,23 +694,8 @@
       <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E2">
-        <v>5.0990195135927836</v>
-      </c>
-      <c r="F2">
-        <v>3.7037037037037042E-2</v>
-      </c>
       <c r="G2" t="s">
         <v>5</v>
-      </c>
-      <c r="H2">
-        <v>5.6157350274997332E-2</v>
-      </c>
-      <c r="I2">
-        <v>1.8650075414781291E-2</v>
-      </c>
-      <c r="J2">
-        <v>8.6038961038961026E-2</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -730,16 +706,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>3.8461538461538457E-2</v>
       </c>
       <c r="G3" t="s">
         <v>5</v>
@@ -759,19 +729,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
-      </c>
-      <c r="E4">
-        <v>4.1231056256176606</v>
-      </c>
-      <c r="F4">
-        <v>5.5555555555555552E-2</v>
       </c>
       <c r="G4" t="s">
         <v>5</v>
@@ -791,19 +755,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5">
-        <v>5.8823529411764712E-2</v>
       </c>
       <c r="G5" t="s">
         <v>5</v>
@@ -823,20 +781,14 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
       </c>
-      <c r="E6">
-        <v>3.16227766016838</v>
-      </c>
-      <c r="F6">
-        <v>9.0909090909090898E-2</v>
-      </c>
       <c r="G6" t="s">
         <v>5</v>
       </c>
@@ -855,19 +807,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
-      </c>
-      <c r="E7">
-        <v>7.0710678118654764</v>
-      </c>
-      <c r="F7">
-        <v>1.9607843137254902E-2</v>
       </c>
       <c r="G7" t="s">
         <v>5</v>
@@ -887,19 +833,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
-      </c>
-      <c r="E8">
-        <v>7</v>
-      </c>
-      <c r="F8">
-        <v>0.02</v>
       </c>
       <c r="G8" t="s">
         <v>5</v>
@@ -919,19 +859,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
-      </c>
-      <c r="E9">
-        <v>8</v>
-      </c>
-      <c r="F9">
-        <v>1.5384615384615391E-2</v>
       </c>
       <c r="G9" t="s">
         <v>5</v>
@@ -954,16 +888,10 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
-      </c>
-      <c r="E10">
-        <v>7.0710678118654764</v>
-      </c>
-      <c r="F10">
-        <v>1.9607843137254902E-2</v>
       </c>
       <c r="G10" t="s">
         <v>5</v>
@@ -986,16 +914,10 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>8.0622577482985491</v>
-      </c>
-      <c r="F11">
-        <v>1.5151515151515161E-2</v>
+        <v>9</v>
       </c>
       <c r="G11" t="s">
         <v>5</v>
@@ -1015,19 +937,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
-      </c>
-      <c r="E12">
-        <v>3.6055512754639891</v>
-      </c>
-      <c r="F12">
-        <v>7.1428571428571438E-2</v>
       </c>
       <c r="G12" t="s">
         <v>5</v>
@@ -1047,19 +963,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
-      </c>
-      <c r="E13">
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="F13">
-        <v>0.1666666666666666</v>
       </c>
       <c r="G13" t="s">
         <v>5</v>
@@ -1079,19 +989,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
-      </c>
-      <c r="E14">
-        <v>3.16227766016838</v>
-      </c>
-      <c r="F14">
-        <v>9.0909090909090898E-2</v>
       </c>
       <c r="G14" t="s">
         <v>5</v>
@@ -1111,19 +1015,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15">
-        <v>4.2426406871192848</v>
-      </c>
-      <c r="F15">
-        <v>5.2631578947368432E-2</v>
+        <v>10</v>
       </c>
       <c r="G15" t="s">
         <v>5</v>
@@ -1143,19 +1041,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16">
-        <v>2.8284271247461898</v>
-      </c>
-      <c r="F16">
-        <v>0.1111111111111111</v>
+        <v>10</v>
       </c>
       <c r="G16" t="s">
         <v>5</v>
@@ -1175,19 +1067,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17">
-        <v>6.7082039324993694</v>
-      </c>
-      <c r="F17">
-        <v>2.1739130434782601E-2</v>
+        <v>5</v>
       </c>
       <c r="G17" t="s">
         <v>5</v>
@@ -1203,24 +1089,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>8</v>
-      </c>
-      <c r="D18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.5</v>
-      </c>
+      <c r="A18" s="1"/>
       <c r="G18" t="s">
         <v>5</v>
       </c>
@@ -1235,24 +1104,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>9</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
+      <c r="A19" s="1"/>
       <c r="G19" t="s">
         <v>5</v>
       </c>
@@ -1263,6 +1115,21 @@
         <v>5</v>
       </c>
       <c r="J19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="G20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" t="s">
         <v>5</v>
       </c>
     </row>
